--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1717.xlsx
@@ -351,7 +351,7 @@
         <v>0.7981851748837879</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.365329362939448</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1717.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7981851748837879</v>
+        <v>0.816264271736145</v>
       </c>
       <c r="B1">
+        <v>1.865287899971008</v>
+      </c>
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="C1">
-        <v>3.365329362939448</v>
-      </c>
       <c r="D1">
-        <v>1.83626503813124</v>
+        <v>1.97567343711853</v>
       </c>
       <c r="E1">
-        <v>1.396140617195276</v>
+        <v>0.6954168677330017</v>
       </c>
     </row>
   </sheetData>
